--- a/autoConditions/train1Block9.xlsx
+++ b/autoConditions/train1Block9.xlsx
@@ -449,36 +449,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainaudio/07_pitapi.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/06_titoka.wav</t>
+          <t>trainaudio/18_popata.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainaudio/17_kotako.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
     </row>
@@ -497,24 +497,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/20_tatito.wav</t>
+          <t>trainaudio/21_papika.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainaudio/02_pitito.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block9.xlsx
+++ b/autoConditions/train1Block9.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/07_pitapi.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainingaudio/20_tatito1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/17_kotako.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/02_pitito.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block9.xlsx
+++ b/autoConditions/train1Block9.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/26_kapako1.wav</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/20_tatito1.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/06_titoka3.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/04_kitoti2.wav</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako2.wav</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/12_pokika3.wav</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
     </row>
